--- a/HealthManagementAutomation/src/test/resources/Files/test_data/hrm_data.xlsx
+++ b/HealthManagementAutomation/src/test/resources/Files/test_data/hrm_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -443,7 +443,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -518,7 +518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
